--- a/data/income_statement/2digits/size/47_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/47_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>47-Retail trade, except of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>47-Retail trade, except of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>33799284.09130999</v>
+        <v>33180429.89484001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>43859051.37602001</v>
+        <v>43107475.41557</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>56881665.76415999</v>
+        <v>56123073.27797999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>68329549.63649</v>
+        <v>67238959.62626</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>68361369.00496</v>
+        <v>67957642.79708</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>77631859.06384002</v>
+        <v>77584745.68148999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>83814298.96659002</v>
+        <v>83893455.1283</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>96348781.32567999</v>
+        <v>95630725.60717002</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>119069684.37077</v>
+        <v>117197174.81368</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>97066858.31411001</v>
+        <v>95200453.30912</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>122377612.24603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>106159613.99167</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>124534108.718</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>32288439.39776</v>
+        <v>31699388.79719</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>42205764.73229</v>
+        <v>41494120.30187001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>54705767.5148</v>
+        <v>53967450.83638</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>65720306.7014</v>
+        <v>64704693.30309</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>65520272.74460001</v>
+        <v>65215801.2106</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>74527299.81978001</v>
+        <v>74488134.63043001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>80342289.39945999</v>
+        <v>80409842.50510001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>92409710.80241001</v>
+        <v>91857169.88950001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>113469925.95346</v>
+        <v>111749864.03655</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>92222364.49710001</v>
+        <v>90540297.25119001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>116391722.03952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>100284491.51549</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>118017059.156</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>877993.31623</v>
+        <v>868626.96818</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>857227.8074399999</v>
+        <v>844040.5430900002</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1078691.18748</v>
+        <v>1088339.31369</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1272934.17826</v>
+        <v>1240955.43522</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1341122.12064</v>
+        <v>1273235.175</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1324856.22242</v>
+        <v>1348298.19267</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1182423.36293</v>
+        <v>1195859.28915</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1515661.25836</v>
+        <v>1429654.72345</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2793946.22231</v>
+        <v>2719135.51587</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2110223.63373</v>
+        <v>1968835.21232</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2847380.42654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2820334.31944</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3080985.725</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>632851.37732</v>
+        <v>612414.12947</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>796058.83629</v>
+        <v>769314.5706100001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1097207.06188</v>
+        <v>1067283.12791</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1336308.75683</v>
+        <v>1293310.88795</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1499974.13972</v>
+        <v>1468606.41148</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1779703.02164</v>
+        <v>1748312.85839</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2289586.2042</v>
+        <v>2287753.33405</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2423409.26491</v>
+        <v>2343900.99422</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2805812.195</v>
+        <v>2728175.26126</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2734270.18328</v>
+        <v>2691320.84561</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3138509.77997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3054788.15674</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3436063.837</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>617521.45528</v>
+        <v>606407.30562</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>753362.03354</v>
+        <v>742098.7525400001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>913462.6220699999</v>
+        <v>905639.11395</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1192205.0797</v>
+        <v>1183553.21653</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1413980.56066</v>
+        <v>1438479.43754</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2128961.21076</v>
+        <v>2189792.68653</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1760140.01705</v>
+        <v>1873526.59266</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2403974.82676</v>
+        <v>3514783.09248</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2383863.49036</v>
+        <v>2442066.38062</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2725480.54847</v>
+        <v>2716789.85019</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>18369400.47968</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3074599.63525</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3119301.356</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>334469.09528</v>
+        <v>323401.77847</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>406529.34332</v>
+        <v>399475.82089</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>530832.1064200001</v>
+        <v>520064.24551</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>699113.7906999999</v>
+        <v>701783.31048</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>763239.88724</v>
+        <v>760297.04206</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1581980.58823</v>
+        <v>1595834.06176</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1032339.63646</v>
+        <v>1061608.1205</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1599243.05894</v>
+        <v>2650315.6444</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1410434.96211</v>
+        <v>1429596.82627</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1530720.06918</v>
+        <v>1514001.61015</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>17174323.67108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1855580.57954</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1866291.031</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>253191.95914</v>
+        <v>251849.12625</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>297509.99026</v>
+        <v>293384.07622</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>330683.7324</v>
+        <v>332931.4234</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>418371.58066</v>
+        <v>427266.29516</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>598522.7246500001</v>
+        <v>627778.7631500001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>462850.64809</v>
+        <v>507668.28073</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>512581.01944</v>
+        <v>592791.52278</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>593533.38364</v>
+        <v>653609.19427</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>678267.5043699999</v>
+        <v>716900.64335</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>948438.1929</v>
+        <v>960567.79023</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>989434.6034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1010566.33921</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1036913.787</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>29860.40086</v>
+        <v>31156.4009</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>49322.69996</v>
+        <v>49238.85543</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>51946.78325</v>
+        <v>52643.44504</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>74719.70833999998</v>
+        <v>54503.61089</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>52217.94877</v>
+        <v>50403.63233</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>84129.97443999999</v>
+        <v>86290.34404</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>215219.36115</v>
+        <v>219126.9493800001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>211198.38418</v>
+        <v>210858.25381</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>295161.02388</v>
+        <v>295568.911</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>246322.28639</v>
+        <v>242220.44981</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>205642.2052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>208452.7165</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>216096.538</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>33181762.63603</v>
+        <v>32574022.58922</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>43105689.34248</v>
+        <v>42365376.66303</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>55968203.14208999</v>
+        <v>55217434.16403</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>67137344.55678999</v>
+        <v>66055406.40973</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>66947388.4443</v>
+        <v>66519163.35953999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>75502897.85308</v>
+        <v>75394952.99496</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>82054158.94954</v>
+        <v>82019928.53564</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>93944806.49892001</v>
+        <v>92115942.51469</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>116685820.88041</v>
+        <v>114755108.43306</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>94341377.76564001</v>
+        <v>92483663.45892999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>104008211.76635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>103085014.35642</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>121414807.362</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>28666728.98573</v>
+        <v>28154644.55726</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>37665704.43059999</v>
+        <v>37056542.16232</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>49148282.41645</v>
+        <v>48560168.18296</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>59130275.22176</v>
+        <v>58247226.50398</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>58813379.11118999</v>
+        <v>58497038.0161</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>66205464.71251</v>
+        <v>66208787.40126</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>71196030.6327</v>
+        <v>71272098.23156999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>81673590.24518001</v>
+        <v>80088534.74517</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>101615362.13997</v>
+        <v>100109053.27439</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>80342708.16397001</v>
+        <v>78884401.46527</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>87770323.86418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>87251354.44533999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>105278103.32</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>746165.3055000001</v>
+        <v>724350.95979</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1118558.40398</v>
+        <v>1076678.1683</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1335870.22309</v>
+        <v>1289709.09724</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1781306.2358</v>
+        <v>1753642.0954</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1578829.02455</v>
+        <v>1517627.275</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1845190.13858</v>
+        <v>1869552.77222</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1913401.83438</v>
+        <v>1896214.95536</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2934127.28027</v>
+        <v>2827010.87462</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3970330.60282</v>
+        <v>3865752.54441</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2983967.10139</v>
+        <v>2863383.35106</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3665737.077610001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3559156.34434</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>5300338.271</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>27152505.62794</v>
+        <v>26706899.8687</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>35653518.74963</v>
+        <v>35114748.25635</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>46703719.79302</v>
+        <v>46191153.67553999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>56150586.56315</v>
+        <v>55317800.75492</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>55682029.71337</v>
+        <v>55449692.60929</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>62430566.90964</v>
+        <v>62402551.48499</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>67220819.33992</v>
+        <v>67319266.83749999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>76553976.52066</v>
+        <v>75144657.03638001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>94580755.00760998</v>
+        <v>93204018.90743001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>74100430.36725999</v>
+        <v>72848740.78049</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>80496492.10335001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>80185358.40988998</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>96144376.964</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>695047.2285900001</v>
+        <v>654509.04257</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>843617.9584300001</v>
+        <v>823506.9433099999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1034247.41957</v>
+        <v>1010565.1862</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1145571.36056</v>
+        <v>1127785.8716</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1425448.04985</v>
+        <v>1411667.54379</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1801017.86225</v>
+        <v>1818910.95266</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1885062.93915</v>
+        <v>1899377.59981</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2014880.49761</v>
+        <v>1953508.37118</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2857119.72247</v>
+        <v>2836669.60793</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2914982.420520001</v>
+        <v>2847334.49144</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3207590.53888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3169546.45809</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3455881.134</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>73010.82370000001</v>
+        <v>68884.6862</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>50009.31856</v>
+        <v>41608.79436</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>74444.98076999999</v>
+        <v>68740.22398000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>52811.06225</v>
+        <v>47997.78206000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>127072.32342</v>
+        <v>118050.58802</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>128689.80204</v>
+        <v>117772.19139</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>176746.51925</v>
+        <v>157238.8389</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>170605.94664</v>
+        <v>163358.46299</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>207156.80707</v>
+        <v>202612.21462</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>343328.2748</v>
+        <v>324942.84228</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>400504.14434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>337293.23302</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>377506.951</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>4515033.6503</v>
+        <v>4419378.03196</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>5439984.91188</v>
+        <v>5308834.500709999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6819920.725640001</v>
+        <v>6657265.98107</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>8007069.335029999</v>
+        <v>7808179.90575</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>8134009.333110001</v>
+        <v>8022125.343440001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>9297433.14057</v>
+        <v>9186165.593700001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>10858128.31684</v>
+        <v>10747830.30407</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>12271216.25374</v>
+        <v>12027407.76952</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>15070458.74044</v>
+        <v>14646055.15867</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>13998669.60167</v>
+        <v>13599261.99366</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>16237887.90217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15833659.91108</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>16136704.042</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>3730705.69066</v>
+        <v>3608763.16116</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>4372214.80564</v>
+        <v>4243062.112439999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>5495477.60204</v>
+        <v>5340144.09768</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>6594082.661280001</v>
+        <v>6412106.471660001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>6783031.87053</v>
+        <v>6643677.56684</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>7841115.309230001</v>
+        <v>7709196.014939999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>9046533.736949999</v>
+        <v>8941240.313380001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>10195440.31922</v>
+        <v>9919414.45153</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>12050436.0923</v>
+        <v>11637305.69873</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>11564754.77893</v>
+        <v>11305617.07998</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>13413969.21027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13045804.13568</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>12926038.936</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3397.22382</v>
+        <v>2609.912</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1762.37566</v>
+        <v>1747.56291</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>16432.63255</v>
+        <v>16403.44457</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>11684.40813</v>
+        <v>11077.88217</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>13812.44243</v>
+        <v>15052.35152</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5771.76472</v>
+        <v>7512.86161</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>10541.82788</v>
+        <v>12517.44319</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>8229.81566</v>
+        <v>7975.68632</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>5332.3669</v>
+        <v>8413.10734</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>7173.937519999999</v>
+        <v>6899.33052</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>8613.30248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8427.802989999998</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3035.321</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1852035.80308</v>
+        <v>1842994.08458</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>2126301.70299</v>
+        <v>2114958.89235</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2666762.03734</v>
+        <v>2648342.596609999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>3125619.1277</v>
+        <v>3126272.6128</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>3457214.6532</v>
+        <v>3481202.7462</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3972439.65402</v>
+        <v>3979777.93504</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>4487893.043280001</v>
+        <v>4511079.511279999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4975694.345969999</v>
+        <v>5049438.851969999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>5801776.6218</v>
+        <v>5760122.358800001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>6732671.965989999</v>
+        <v>6648343.97581</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>7754557.752309999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7653141.76784</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>7445497.036</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1875272.66376</v>
+        <v>1763159.16458</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2244150.72699</v>
+        <v>2126355.65718</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2812282.93215</v>
+        <v>2675398.0565</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3456779.12545</v>
+        <v>3274755.97669</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3312004.7749</v>
+        <v>3147422.46912</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3862903.89049</v>
+        <v>3721905.21829</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>4548098.865790001</v>
+        <v>4417643.35891</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5211516.15759</v>
+        <v>4861999.91324</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>6243327.103599999</v>
+        <v>5868770.23259</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4824908.87542</v>
+        <v>4650373.77365</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5650798.155479999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5384234.564850001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5477506.579</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>784327.9596400001</v>
+        <v>810614.8708</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1067770.10624</v>
+        <v>1065772.38827</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1324443.1236</v>
+        <v>1317121.88339</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1412986.67375</v>
+        <v>1396073.43409</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1350977.46258</v>
+        <v>1378447.7766</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1456317.83134</v>
+        <v>1476969.57876</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1811594.57989</v>
+        <v>1806589.99069</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2075775.93452</v>
+        <v>2107993.31799</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3020022.64814</v>
+        <v>3008749.45994</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2433914.82274</v>
+        <v>2293644.91368</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2823918.6919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2787855.7754</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3210665.106</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>460051.69703</v>
+        <v>401475.55622</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>510831.05602</v>
+        <v>463594.18004</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>600303.7789800001</v>
+        <v>527037.6409</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>626393.42574</v>
+        <v>613345.557</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>679893.9765</v>
+        <v>691476.3093300001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>826802.5601999999</v>
+        <v>832938.5264300001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1160104.99607</v>
+        <v>1287096.03707</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1372413.22109</v>
+        <v>1263732.33136</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1577043.73725</v>
+        <v>1573901.50978</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2375001.34166</v>
+        <v>2371048.74538</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1881246.97334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1906113.41306</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2273389.064</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>7898.86573</v>
+        <v>5643.29455</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>6827.886030000001</v>
+        <v>3661.32725</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>4514.91183</v>
+        <v>6446.25778</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4244.50696</v>
+        <v>3874.00662</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>11562.0133</v>
+        <v>11653.63733</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>4521.129400000001</v>
+        <v>5160.384340000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>9583.126819999999</v>
+        <v>10047.07187</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>15381.73351</v>
+        <v>7070.1913</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>22772.6073</v>
+        <v>87378.44093</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>85069.10780999999</v>
+        <v>50295.15249999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>66198.48448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>207551.88378</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>11423.763</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>9021.221509999999</v>
+        <v>5378.206359999999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>9628.86234</v>
+        <v>3979.17994</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>11541.67172</v>
+        <v>3194.3385</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>4183.32312</v>
+        <v>5941.96792</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>11146.75603</v>
+        <v>6857.857770000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>11580.83767</v>
+        <v>2288.0817</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>6929.80185</v>
+        <v>2620.83366</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>26967.94922</v>
+        <v>4516.26518</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>14200.48466</v>
+        <v>6809.74038</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>34897.66943</v>
+        <v>1230.41619</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>48788.15178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>743.78637</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>121.719</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>54655.77839</v>
+        <v>48176.48919</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>43343.84319</v>
+        <v>39386.73047</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>61171.24954</v>
+        <v>53953.03816</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>72248.28839</v>
+        <v>66592.58660000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>62927.43515999999</v>
+        <v>72452.2546</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>95667.6992</v>
+        <v>113765.02943</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>116606.96819</v>
+        <v>151308.30702</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>131999.88203</v>
+        <v>122648.04451</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>190335.33317</v>
+        <v>186232.53951</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>269991.81471</v>
+        <v>223608.9024</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>365098.71248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>315217.60685</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>289324.348</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>9381.846870000001</v>
+        <v>6415.523279999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>10242.28206</v>
+        <v>7513.13316</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>12766.94211</v>
+        <v>9380.63299</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>10972.66641</v>
+        <v>8698.053129999998</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>12818.44925</v>
+        <v>12903.34287</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>14367.73952</v>
+        <v>22254.39962</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>13441.67412</v>
+        <v>18008.91613</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>9926.48336</v>
+        <v>7561.897089999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>9749.134129999999</v>
+        <v>9408.85536</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>52418.50124000001</v>
+        <v>50766.60328</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>8698.36772</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>12114.75784</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>23456.773</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>14163.94341</v>
+        <v>11740.99172</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>14455.25407</v>
+        <v>11277.80478</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>26078.60316</v>
+        <v>9271.39991</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>10472.53814</v>
+        <v>11782.46885</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>12723.6954</v>
+        <v>14424.78326</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>17198.53791</v>
+        <v>20902.44168</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>25624.02591</v>
+        <v>25012.91557</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>19625.90745</v>
+        <v>20851.55474</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>22540.50919</v>
+        <v>20167.37096</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>22613.82634</v>
+        <v>24651.50967</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>45501.70185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>44571.80511</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>34620.494</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>3090.79565</v>
+        <v>2676.57788</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2908.61588</v>
+        <v>2676.596849999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>6603.493179999999</v>
+        <v>6227.625880000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>4523.63075</v>
+        <v>16562.45862</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4132.26388</v>
+        <v>9978.872160000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>9028.2083</v>
+        <v>8516.039070000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>14519.89816</v>
+        <v>12243.58231</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>114173.39008</v>
+        <v>5879.09904</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>10831.85852</v>
+        <v>9660.85498</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>41432.28881999999</v>
+        <v>58627.59963</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>20799.41239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>16330.8255</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>38294.364</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>183592.34178</v>
+        <v>158085.34343</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>204207.9047</v>
+        <v>182424.7352</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>203360.19907</v>
+        <v>176795.15726</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>202529.15282</v>
+        <v>169115.76244</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>243547.02287</v>
+        <v>246860.13825</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>321188.40867</v>
+        <v>313392.1359000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>522235.37455</v>
+        <v>598186.8677599999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>443788.31665</v>
+        <v>466833.6605</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>585708.76934</v>
+        <v>548962.42434</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1266793.53409</v>
+        <v>1398840.93212</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>634233.41734</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>623809.4151099999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1007713.433</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2972.47914</v>
+        <v>2193.33409</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>1108.86448</v>
+        <v>1355.61692</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>1964.32113</v>
+        <v>2619.4722</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1006.01641</v>
+        <v>1135.69033</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>1435.28151</v>
+        <v>2383.37404</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>5838.93358</v>
+        <v>6989.38083</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2124.68714</v>
+        <v>2090.09929</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>4545.78648</v>
+        <v>6918.725780000001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>9582.041429999999</v>
+        <v>9531.35534</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>3245.51806</v>
+        <v>2243.40402</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>2854.0676</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>4166.031</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>9688.989389999999</v>
+        <v>9670.36901</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>5338.902970000001</v>
+        <v>4805.00398</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>9620.617170000001</v>
+        <v>8794.021910000001</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>5182.87296</v>
+        <v>4738.90307</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>8730.525519999999</v>
+        <v>8416.176220000001</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>8198.45925</v>
+        <v>7444.1448</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>13083.57713</v>
+        <v>8732.469780000001</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>18517.25843</v>
+        <v>13067.35305</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>33591.22247</v>
+        <v>22323.64006</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>24992.47619</v>
+        <v>12781.89514</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>19612.86959</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>13258.91927</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>76814.681</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>165585.43516</v>
+        <v>151495.42671</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>212768.6403</v>
+        <v>206514.05149</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>262681.77007</v>
+        <v>250355.69631</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>311030.42978</v>
+        <v>324903.65942</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>310870.53358</v>
+        <v>305545.87283</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>339212.6067</v>
+        <v>332226.4890599999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>435955.8622</v>
+        <v>458844.97368</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>587486.51388</v>
+        <v>608385.5401699999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>677731.7770400001</v>
+        <v>673426.28792</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>573546.60497</v>
+        <v>548002.3304300001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>669461.78811</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>669660.34563</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>787453.458</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>352565.91126</v>
+        <v>290577.7692</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>315054.63781</v>
+        <v>291731.7668</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>536845.4406300001</v>
+        <v>445996.7182299999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>322742.63654</v>
+        <v>330068.45939</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>714246.43363</v>
+        <v>597254.2761</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>594198.5811299999</v>
+        <v>659778.79056</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1057644.23217</v>
+        <v>1167166.13104</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1176520.32602</v>
+        <v>902139.38424</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1158514.67947</v>
+        <v>1045044.64611</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2228921.22651</v>
+        <v>2233300.23222</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1347552.30711</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1234404.16078</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1661917.5</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>32674.94545</v>
+        <v>31856.84483</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>32887.61364</v>
+        <v>32114.51705</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>36811.01861</v>
+        <v>34382.78522999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>44865.52876000001</v>
+        <v>45682.31008</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>52988.29045</v>
+        <v>52507.87501999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>46513.23772</v>
+        <v>46818.67314</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>51751.81911</v>
+        <v>52597.16564</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>54837.97437</v>
+        <v>52876.44345000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>70071.19031000001</v>
+        <v>70186.27857000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>69431.69168</v>
+        <v>69130.90121000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>80097.9792</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>79021.49829</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>74723.861</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>81645.3195</v>
+        <v>54704.38756</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>41580.09533999999</v>
+        <v>45736.6022</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>42681.62909999999</v>
+        <v>44937.57434</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>66376.52125000001</v>
+        <v>88811.78236</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>74023.35067000001</v>
+        <v>72044.64970000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>62172.74501999999</v>
+        <v>63431.43421000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>91806.57249999999</v>
+        <v>91608.83921999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>118140.46751</v>
+        <v>117586.99363</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>112798.96624</v>
+        <v>111618.02479</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>108805.39286</v>
+        <v>102500.55929</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>168987.4644</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>119688.86025</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>107795.057</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1158.92835</v>
+        <v>875.6095000000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>696.8411400000001</v>
+        <v>272.32057</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1377.95936</v>
+        <v>1003.45876</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2582.47448</v>
+        <v>1391.36484</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>810.33424</v>
+        <v>1320.72891</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>647.76016</v>
+        <v>12593.58843</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2299.97517</v>
+        <v>1313.27987</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>159195.75419</v>
+        <v>2307.7512</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>6191.71031</v>
+        <v>507.2948299999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>3106.97098</v>
+        <v>3085.45938</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2392.22906</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1074.59575</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>10376.053</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>193117.37025</v>
+        <v>165308.284</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>198117.83289</v>
+        <v>173699.18596</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>396404.98333</v>
+        <v>306907.20687</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>149073.63098</v>
+        <v>139179.13444</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>507959.55347</v>
+        <v>399542.8195399999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>390237.69641</v>
+        <v>436779.06446</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>801829.77861</v>
+        <v>924943.9953099999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>727647.4616800001</v>
+        <v>608921.76301</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>812037.6973499999</v>
+        <v>737715.32871</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1914980.07146</v>
+        <v>1937205.68192</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>889838.96005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>850145.25546</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1245646.304</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>2670.37854</v>
+        <v>2059.53096</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1913.84423</v>
+        <v>1735.86937</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>863.5835699999999</v>
+        <v>1909.00507</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>750.3492</v>
+        <v>993.49308</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1778.40991</v>
+        <v>2954.09208</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>4065.35426</v>
+        <v>5208.44951</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1779.36464</v>
+        <v>1568.25767</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>5005.7965</v>
+        <v>8716.87808</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>8056.728779999999</v>
+        <v>7921.236650000001</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>4240.667179999999</v>
+        <v>3420.10523</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>5172.99459</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>2143.90785</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>13848.985</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>2271.446210000001</v>
+        <v>2502.45816</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>3697.77695</v>
+        <v>4323.859350000001</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>8509.437179999999</v>
+        <v>6940.44085</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>2650.5743</v>
+        <v>2574.42683</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>3739.96173</v>
+        <v>5698.39167</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>5801.33029</v>
+        <v>6344.54497</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>7862.9944</v>
+        <v>7986.26955</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>7940.30465</v>
+        <v>7416.01799</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>16005.92159</v>
+        <v>15249.8164</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>37441.06961</v>
+        <v>18815.72875</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>24254.85697</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>18712.77283</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>62756.855</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>39027.52296</v>
+        <v>33270.65419</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>36160.63362000001</v>
+        <v>33849.4123</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>50196.82948</v>
+        <v>49916.24711</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>56443.55757</v>
+        <v>51435.94776</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>72946.53315999999</v>
+        <v>63185.71918</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>84760.45727</v>
+        <v>88603.03584</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>100313.72774</v>
+        <v>87148.32378000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>103752.56712</v>
+        <v>104313.53688</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>133352.46489</v>
+        <v>101846.66616</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>90915.36274</v>
+        <v>99141.79643999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>176807.82284</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>163617.27035</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>146770.385</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>499406.8430999999</v>
+        <v>468540.9078700001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>478185.91237</v>
+        <v>452416.51326</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>655472.67811</v>
+        <v>622100.7835000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>929447.8856500001</v>
+        <v>885344.237</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>875479.8325599999</v>
+        <v>875488.77489</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1081977.16876</v>
+        <v>1203427.44221</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1396114.77003</v>
+        <v>1525983.2974</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1710366.91399</v>
+        <v>1596106.84799</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2094529.66912</v>
+        <v>1975647.95811</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2452399.24509</v>
+        <v>2266322.53093</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2403110.28229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2255690.02932</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1928013.556</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>472949.1724300001</v>
+        <v>445870.24304</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>450522.79271</v>
+        <v>428791.92175</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>613370.1863299999</v>
+        <v>589895.2126</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>884635.6688199999</v>
+        <v>845702.2571999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>830083.49849</v>
+        <v>820923.16093</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1020295.14188</v>
+        <v>1150362.24604</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1281357.99526</v>
+        <v>1449244.50457</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1597280.18238</v>
+        <v>1528499.77653</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1972028.22573</v>
+        <v>1876594.30936</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2274665.13328</v>
+        <v>2130143.76067</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2286816.01465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2135091.54274</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1818568.437</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>26457.67067</v>
+        <v>22670.66483</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>27663.11966</v>
+        <v>23624.59151</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>42102.49178</v>
+        <v>32205.5709</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>44812.21683</v>
+        <v>39641.97979999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>45396.33406999999</v>
+        <v>54565.61396</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>61682.02688</v>
+        <v>53065.19617</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>114756.77477</v>
+        <v>76738.79282999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>113086.73161</v>
+        <v>67607.07146000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>122501.44339</v>
+        <v>99053.64874999998</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>177734.11181</v>
+        <v>136178.77026</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>116294.26764</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>120598.48658</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>109445.119</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>392406.90231</v>
+        <v>452971.74995</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>785360.6120799999</v>
+        <v>785218.28825</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>732428.78384</v>
+        <v>776062.0225600001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>787189.5773</v>
+        <v>794006.2947000002</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>441145.17289</v>
+        <v>597181.0349399999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>606944.6416500001</v>
+        <v>446701.8724200001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>517940.57376</v>
+        <v>400536.5993199999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>561301.9155999999</v>
+        <v>873479.41712</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1344022.0368</v>
+        <v>1561958.3655</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>127595.6928</v>
+        <v>165070.89591</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>954503.0758400001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1203874.99836</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1894123.114</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>160912.88938</v>
+        <v>153139.35709</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>214876.86178</v>
+        <v>190137.57731</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>250871.43825</v>
+        <v>213882.63815</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>295875.16869</v>
+        <v>288664.33225</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>301127.39884</v>
+        <v>273239.5195000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>448793.45414</v>
+        <v>397545.60609</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>618075.13376</v>
+        <v>506946.9188</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>560185.6499</v>
+        <v>575778.19924</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>826163.96271</v>
+        <v>686652.3848900001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>512787.98359</v>
+        <v>422016.11412</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>746409.0806400001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>652631.72672</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>641986.04</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3287.78037</v>
+        <v>2886.41622</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>3277.59934</v>
+        <v>3144.14363</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>4758.596379999999</v>
+        <v>4772.749059999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>8152.078320000001</v>
+        <v>7663.93375</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>6274.53319</v>
+        <v>5260.37402</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>15954.71688</v>
+        <v>10885.86282</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>11862.48486</v>
+        <v>10320.08736</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>12364.84047</v>
+        <v>43657.93511</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>9871.99935</v>
+        <v>10976.24516</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>6587.83307</v>
+        <v>6425.5447</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>11403.4431</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>11332.73239</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>8274.748</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>157625.10901</v>
+        <v>150252.94087</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>211599.26244</v>
+        <v>186993.43368</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>246112.84187</v>
+        <v>209109.88909</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>287723.0903699999</v>
+        <v>281000.3985</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>294852.8656500001</v>
+        <v>267979.14548</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>432838.73726</v>
+        <v>386659.74327</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>606212.6489</v>
+        <v>496626.83144</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>547820.8094299999</v>
+        <v>532120.26413</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>816291.9633600001</v>
+        <v>675676.1397300001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>506200.15052</v>
+        <v>415590.56942</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>735005.6375399999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>641298.9943299999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>633711.292</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>96919.63898</v>
+        <v>83773.36178000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>158001.41463</v>
+        <v>139206.52172</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>877264.2930900001</v>
+        <v>790171.31746</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>161465.59924</v>
+        <v>136411.10117</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>188326.26771</v>
+        <v>167628.82315</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>491758.23278</v>
+        <v>488644.71615</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>259114.8664</v>
+        <v>243638.07201</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>844747.4410799999</v>
+        <v>770506.6095199999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>368682.98577</v>
+        <v>310312.45357</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>719441.9070899999</v>
+        <v>645733.44653</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>499052.13914</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>413689.40776</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>329715.388</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1427.55514</v>
+        <v>1363.51294</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2172.13612</v>
+        <v>1699.50684</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1189.87235</v>
+        <v>1369.85505</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1820.10059</v>
+        <v>3393.05585</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>3666.08307</v>
+        <v>3800.19068</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1477.48088</v>
+        <v>1172.15306</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1529.78892</v>
+        <v>1228.92269</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2145.16142</v>
+        <v>4123.91252</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2132.67104</v>
+        <v>1706.26738</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4280.32105</v>
+        <v>3880.14793</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1164.03949</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1196.95465</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9782.215</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>9456.489669999999</v>
+        <v>8861.524169999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>9057.04103</v>
+        <v>8031.18362</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>18774.36682</v>
+        <v>15849.70214</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4844.6169</v>
+        <v>5064.388349999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>14999.09181</v>
+        <v>11278.50831</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>15002.02773</v>
+        <v>8579.249260000002</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11133.14136</v>
+        <v>11761.57063</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>14595.44173</v>
+        <v>29406.78642</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>10224.49814</v>
+        <v>9239.5077</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>16522.73414</v>
+        <v>16346.28582</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>52582.53624</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>50181.90549</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>13306.845</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>86035.59417</v>
+        <v>73548.32467</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>146772.23748</v>
+        <v>129475.83126</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>857300.05392</v>
+        <v>772951.76027</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>154800.88175</v>
+        <v>127953.65697</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>169661.09283</v>
+        <v>152550.12416</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>475278.7241699999</v>
+        <v>478893.3138300001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>246451.93612</v>
+        <v>230647.57869</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>828006.8379299999</v>
+        <v>736975.91058</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>356325.8165900001</v>
+        <v>299366.67849</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>698638.8519000001</v>
+        <v>625507.01278</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>445305.56341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>362310.54762</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>306626.328</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>456400.15271</v>
+        <v>522337.74526</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>842236.05923</v>
+        <v>836149.3438399999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>106035.929</v>
+        <v>199773.34325</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>921599.1467499998</v>
+        <v>946259.52578</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>553946.3040199999</v>
+        <v>702791.73129</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>563979.86301</v>
+        <v>355602.7623599999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>876900.8411199999</v>
+        <v>663845.44611</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>276740.12442</v>
+        <v>678751.0068399999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1801503.01374</v>
+        <v>1938298.29682</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-79058.2307</v>
+        <v>-58646.4365</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1201860.01734</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1442817.31732</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2206393.766</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>134233.74264</v>
+        <v>133839.70398</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>187159.84752</v>
+        <v>185361.44635</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>218879.79929</v>
+        <v>212964.10225</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>226931.36937</v>
+        <v>223635.78379</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>219312.57451</v>
+        <v>219800.82326</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>240642.68493</v>
+        <v>236956.44943</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>302969.61659</v>
+        <v>298528.9364000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>346706.2066499999</v>
+        <v>336026.90786</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>442869.9576199999</v>
+        <v>418734.58702</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>371591.7882000001</v>
+        <v>355704.79022</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>439530.21432</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>435449.54909</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>566027.626</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>322166.41007</v>
+        <v>388498.0412799999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>655076.2117100001</v>
+        <v>650787.89749</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-112843.87029</v>
+        <v>-13190.759</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>694667.77738</v>
+        <v>722623.74199</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>334633.72951</v>
+        <v>482990.90803</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>323337.17808</v>
+        <v>118646.31293</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>573931.2245300001</v>
+        <v>365316.50971</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-69966.08223000004</v>
+        <v>342724.09898</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1358633.05612</v>
+        <v>1519563.7098</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-450650.0189</v>
+        <v>-414351.22672</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>762329.8030200001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1007367.76823</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1640366.14</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2391</v>
+        <v>1881</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2956</v>
+        <v>2366</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3697</v>
+        <v>2981</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4438</v>
+        <v>3533</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3210</v>
+        <v>2571</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3660</v>
+        <v>2939</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4277</v>
+        <v>3359</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4939</v>
+        <v>3695</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>5915</v>
+        <v>4471</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2065</v>
+        <v>1759</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1761</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>